--- a/dados_produtos_corrigidos.xlsx
+++ b/dados_produtos_corrigidos.xlsx
@@ -462,163 +462,163 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>298239</v>
+        <v>258938</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACUCAR CRISTAL ECOCUCAR 2KG</t>
+          <t>ARROZ BRILHANTE TIPO1 BRANCO 5KG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AÇUCAR ECOÇUCAR CRISTAL  2KG</t>
+          <t>ARROZ BRILHANTE BRANCO TIPO 1 PCT 5KG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.59</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>258938</v>
+        <v>269680</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ARROZ BRILHANTE TIPO1 BRANCO 5KG</t>
+          <t>ARROZ DONA VAVA 5KG TIPO 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARROZ BRILHANTE BRANCO TIPO 1 PCT 5KG</t>
+          <t>ARROZ DONA VAVA BRANCO TIPO 1 PCT 5KG</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.69</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>269680</v>
+        <v>136523</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARROZ DONA VAVA 5KG TIPO 1</t>
+          <t>ARROZ KOBLENZ TP1 BRANCO 5KG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARROZ DONA VAVA BRANCO TIPO 1 PCT 5KG</t>
+          <t>ARROZ KOBLENZ BRANCO TIPO 1 PCT 5KG</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.99</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>136523</v>
+        <v>225003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARROZ KOBLENZ TP1 BRANCO 5KG</t>
+          <t>ARROZ RAMPINELLI 5KG TIPO1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARROZ KOBLENZ BRANCO TIPO 1 PCT 5KG</t>
+          <t>ARROZ RAMPINELLI BRANCO TIPO 1 PCT 5KG</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30.99</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>225003</v>
+        <v>100031</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ARROZ RAMPINELLI 5KG TIPO1</t>
+          <t>ARROZ REI  ARTHUR 5 KG BRANCO TIPO 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARROZ RAMPINELLI BRANCO TIPO 1 PCT 5KG</t>
+          <t>ARROZ REI  ARTHUR BRANCO TIPO 1 PCT 5KG</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.99</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100031</v>
+        <v>199440</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #01 ALTO GIRO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARROZ REI  ARTHUR 5 KG BRANCO TIPO 1</t>
+          <t>ARROZ SANTA FE 5 KG TP1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARROZ REI  ARTHUR BRANCO TIPO 1 PCT 5KG</t>
+          <t>ARROZ SANTA FE BRANCO TIPO 1 PCT 5KG</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.99</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>199440</v>
+        <v>298239</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARROZ SANTA FE 5 KG TP1</t>
+          <t>ACUCAR CRISTAL ECOCUCAR 2KG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ARROZ SANTA FE BRANCO TIPO 1 PCT 5KG</t>
+          <t>AÇUCAR ECOÇUCAR CRISTAL  2KG</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.99</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#01 MERCEARIA - ALTO GIRO</t>
+          <t>#01 MERCEARIA - #02 ALTO GIRO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">

--- a/dados_produtos_corrigidos.xlsx
+++ b/dados_produtos_corrigidos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workflow\automacao_giro_ofertas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9479E70-BA39-4BEC-AD19-1AE5004142AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A87485-E6AE-46E4-9385-32E95561435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1335" windowWidth="19515" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="905">
   <si>
     <t>ID Produto</t>
   </si>
@@ -43,6 +43,9 @@
     <t>ARROZ BRANCO FLORA 5KG TIPO 1</t>
   </si>
   <si>
+    <t xml:space="preserve">ARROZ FLORA PCT 5KG TIPO 1 BRANCO </t>
+  </si>
+  <si>
     <t>ARROZ BREJEIRO 5KG BRANCO TIPO 1</t>
   </si>
   <si>
@@ -2587,7 +2590,151 @@
     <t>KIT  SHAMPOO + CONDICIONADOR HASKELL 500ML MANDIOCA</t>
   </si>
   <si>
-    <t xml:space="preserve">ARROZ FLORA PCT 5KG TIPO 1 BRANCO </t>
+    <t>BOVINO - ACEM C/ OSSO KG</t>
+  </si>
+  <si>
+    <t>ACEM BOVINO COM OSSO KG</t>
+  </si>
+  <si>
+    <t>BOVINO - BISTECA MACA PEITO KG</t>
+  </si>
+  <si>
+    <t>BISTECA DA MAÇÃ DO PEITO KG</t>
+  </si>
+  <si>
+    <t>BOVINO - CORACAO KG</t>
+  </si>
+  <si>
+    <t>CORAÇÃO BOVINO KG</t>
+  </si>
+  <si>
+    <t>BOVINO - COXAO DURO KG</t>
+  </si>
+  <si>
+    <t>COXÃO DURO KG</t>
+  </si>
+  <si>
+    <t>SUINO - TOUCINHO FRESCO KG</t>
+  </si>
+  <si>
+    <t>TOUCINHO FRESCO KG</t>
+  </si>
+  <si>
+    <t>ACUCAR CRISTAL 2KG CAUAXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUCAR CAUAXI 2KG CRISTAL </t>
+  </si>
+  <si>
+    <t>AGUA SANITARIA YPE 1L CLORO ATIVO</t>
+  </si>
+  <si>
+    <t>AGUARD VELHO BARREIRO 910ML</t>
+  </si>
+  <si>
+    <t>AGUARDENTE VELHO BARREIRO 910ML</t>
+  </si>
+  <si>
+    <t>AMAC ROUPAS YPE 2L ACONCHEGO L2L PG1,8L</t>
+  </si>
+  <si>
+    <t>AMACINATE DE ROUPAS YPE 2L ACONCHEGO PROMOCIONAL</t>
+  </si>
+  <si>
+    <t>AMACIANTE YPE 2L INTENSO L2L P1,8L</t>
+  </si>
+  <si>
+    <t>AMACIANTE DE ROUPAS YPE 2L INTENSO PROMOCIONAL</t>
+  </si>
+  <si>
+    <t>ARROZ BENTO TIPO 1 5KG</t>
+  </si>
+  <si>
+    <t>ARROZ BENTO PCT 5KG TIPO 1 BRANCO</t>
+  </si>
+  <si>
+    <t>BISCOITO CREAM CRACKER GALLO 360GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISCOITO GALLO 360G CREAM CRACKER </t>
+  </si>
+  <si>
+    <t>BISCOITO RENATA 360GR COCO</t>
+  </si>
+  <si>
+    <t>BISCOITO RENATA 360G COCO</t>
+  </si>
+  <si>
+    <t>FARINHA TRIGO TRES COROAS 1KG</t>
+  </si>
+  <si>
+    <t>FARINHA DE TRIGO TRES COROAS 1KG</t>
+  </si>
+  <si>
+    <t>FLOCAO DE MILHO AMAFIL 500G</t>
+  </si>
+  <si>
+    <t>FLOCÃO DE MILHO AMAFIL 500G</t>
+  </si>
+  <si>
+    <t>LEITE CONDENSADO CCGL 395GR SEMIDESNATAD</t>
+  </si>
+  <si>
+    <t>LEITE CONDENSADO CCGL 395G SEMIDESNATADO</t>
+  </si>
+  <si>
+    <t>LEITE L.VIDA LEITBOM INTEGRAL</t>
+  </si>
+  <si>
+    <t>LEITE LEITBOM 1L INTEGRAL</t>
+  </si>
+  <si>
+    <t>MACARRAO CRISTAL 500GR SEMOLA ESPAGUETE</t>
+  </si>
+  <si>
+    <t>MACARRAO CRISTAL 500G SEMOLA ESPAGUETE</t>
+  </si>
+  <si>
+    <t>SABAO BARRA MINUANO NEUTRO GLIC 5X180G</t>
+  </si>
+  <si>
+    <t>SABÃO EM BARRA MINUANO 900G NEUTRO GLICERINADO</t>
+  </si>
+  <si>
+    <t>SABAO OMO PO LAVAG PERFEIT 800G CAIXA</t>
+  </si>
+  <si>
+    <t>SABÃO EM PÓ OMO CAIXA 890G LAVAGEM PERFEITA</t>
+  </si>
+  <si>
+    <t>SARDINHA COQUEIRO OLEO 125G</t>
+  </si>
+  <si>
+    <t>SARDINHA COQUEIRO 125G OLEO</t>
+  </si>
+  <si>
+    <t>ALHO A GRANEL KG</t>
+  </si>
+  <si>
+    <t>BANANA PRATA KG</t>
+  </si>
+  <si>
+    <t>BATATA MONALISA KG</t>
+  </si>
+  <si>
+    <t>MANGA PALMER KG</t>
+  </si>
+  <si>
+    <t>MELANCIA INTEIRA KG</t>
+  </si>
+  <si>
+    <t>MELAO AMARELO KG</t>
+  </si>
+  <si>
+    <t>OVOS BRANCOS CARTELA 30 UNID</t>
+  </si>
+  <si>
+    <t>OVOS DE GRANJA BDJ 30UN BRANCOS</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2753,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2951,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E460"/>
+  <dimension ref="A1:E488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>855</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>22.99</v>
@@ -3008,10 +3154,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3022,10 +3168,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,10 +3182,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,10 +3196,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,10 +3210,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,10 +3224,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>23.99</v>
@@ -3095,10 +3241,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3120,13 +3266,13 @@
         <v>298239</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3134,13 +3280,13 @@
         <v>167687</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3148,13 +3294,13 @@
         <v>167686</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,13 +3308,13 @@
         <v>163918</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,13 +3322,13 @@
         <v>292124</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,13 +3336,13 @@
         <v>100054</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3204,13 +3350,13 @@
         <v>106680</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,13 +3364,13 @@
         <v>117533</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,13 +3378,13 @@
         <v>255232</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,13 +3392,13 @@
         <v>132657</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3260,13 +3406,13 @@
         <v>123202</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,13 +3420,13 @@
         <v>289034</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>6.49</v>
@@ -3291,13 +3437,13 @@
         <v>227503</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3305,13 +3451,13 @@
         <v>261728</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>5.99</v>
@@ -3322,13 +3468,13 @@
         <v>286197</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>7.59</v>
@@ -3339,13 +3485,13 @@
         <v>250013</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,13 +3499,13 @@
         <v>239315</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27">
         <v>7.99</v>
@@ -3370,13 +3516,13 @@
         <v>286746</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,13 +3530,13 @@
         <v>239682</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>14.99</v>
@@ -3401,13 +3547,13 @@
         <v>101137</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,13 +3561,13 @@
         <v>101136</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3429,13 +3575,13 @@
         <v>114037</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3443,13 +3589,13 @@
         <v>242311</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,13 +3603,13 @@
         <v>252992</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,13 +3617,13 @@
         <v>101066</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35">
         <v>3.49</v>
@@ -3488,13 +3634,13 @@
         <v>155079</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,13 +3648,13 @@
         <v>321318</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,13 +3662,13 @@
         <v>206111</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,13 +3676,13 @@
         <v>206110</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,13 +3690,13 @@
         <v>206455</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,13 +3704,13 @@
         <v>206966</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3572,13 +3718,13 @@
         <v>206109</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,13 +3732,13 @@
         <v>148436</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3600,13 +3746,13 @@
         <v>210277</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,13 +3760,13 @@
         <v>110330</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3628,13 +3774,13 @@
         <v>112978</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3642,13 +3788,13 @@
         <v>114256</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,13 +3802,13 @@
         <v>273714</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,13 +3816,13 @@
         <v>100780</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,13 +3830,13 @@
         <v>128930</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,13 +3844,13 @@
         <v>128898</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,13 +3858,13 @@
         <v>107361</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,13 +3872,13 @@
         <v>134629</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,13 +3886,13 @@
         <v>100027</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,13 +3900,13 @@
         <v>273006</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,13 +3914,13 @@
         <v>111571</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,13 +3928,13 @@
         <v>100120</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,13 +3942,13 @@
         <v>100789</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,13 +3956,13 @@
         <v>100785</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,13 +3970,13 @@
         <v>108434</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,13 +3984,13 @@
         <v>231627</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,13 +3998,13 @@
         <v>106922</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,13 +4012,13 @@
         <v>307145</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,13 +4026,13 @@
         <v>142446</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,13 +4040,13 @@
         <v>101113</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,13 +4054,13 @@
         <v>303196</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +4068,13 @@
         <v>131884</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,13 +4082,13 @@
         <v>225446</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,13 +4096,13 @@
         <v>309236</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,13 +4110,13 @@
         <v>312924</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,13 +4124,13 @@
         <v>312925</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,13 +4138,13 @@
         <v>108410</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,13 +4152,13 @@
         <v>224050</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,13 +4166,13 @@
         <v>108460</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,13 +4180,13 @@
         <v>317541</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" t="s">
         <v>146</v>
-      </c>
-      <c r="D75" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,13 +4194,13 @@
         <v>101780</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,13 +4208,13 @@
         <v>194705</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,13 +4222,13 @@
         <v>111186</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,13 +4236,13 @@
         <v>101779</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,13 +4250,13 @@
         <v>101778</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,13 +4264,13 @@
         <v>101774</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,13 +4278,13 @@
         <v>215081</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,13 +4292,13 @@
         <v>101775</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,13 +4306,13 @@
         <v>101776</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,13 +4320,13 @@
         <v>113723</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,13 +4334,13 @@
         <v>294326</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,13 +4348,13 @@
         <v>119768</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,13 +4362,13 @@
         <v>101786</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,13 +4376,13 @@
         <v>101785</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,13 +4390,13 @@
         <v>230170</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,13 +4404,13 @@
         <v>101772</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,13 +4418,13 @@
         <v>237471</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,13 +4432,13 @@
         <v>101787</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,13 +4446,13 @@
         <v>108412</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,13 +4460,13 @@
         <v>220429</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,13 +4474,13 @@
         <v>101791</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,13 +4488,13 @@
         <v>101789</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,13 +4502,13 @@
         <v>101788</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,13 +4516,13 @@
         <v>288968</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,13 +4530,13 @@
         <v>101726</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,13 +4544,13 @@
         <v>101728</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,13 +4558,13 @@
         <v>115724</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,13 +4572,13 @@
         <v>276943</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,13 +4586,13 @@
         <v>309350</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,13 +4600,13 @@
         <v>309331</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,13 +4614,13 @@
         <v>309332</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,13 +4628,13 @@
         <v>149121</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,13 +4642,13 @@
         <v>313827</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,13 +4656,13 @@
         <v>130920</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,13 +4670,13 @@
         <v>107640</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,13 +4684,13 @@
         <v>319774</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,13 +4698,13 @@
         <v>319773</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,13 +4712,13 @@
         <v>319775</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4580,13 +4726,13 @@
         <v>182238</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E114">
         <v>4.49</v>
@@ -4597,13 +4743,13 @@
         <v>101130</v>
       </c>
       <c r="B115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,13 +4757,13 @@
         <v>321107</v>
       </c>
       <c r="B116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4625,13 +4771,13 @@
         <v>148235</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,13 +4785,13 @@
         <v>268136</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,13 +4799,13 @@
         <v>128920</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,13 +4813,13 @@
         <v>232950</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,13 +4827,13 @@
         <v>270291</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4695,13 +4841,13 @@
         <v>232952</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4709,13 +4855,13 @@
         <v>232949</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4723,13 +4869,13 @@
         <v>232948</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4737,13 +4883,13 @@
         <v>232412</v>
       </c>
       <c r="B125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4751,13 +4897,13 @@
         <v>237682</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4765,13 +4911,13 @@
         <v>232411</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4779,13 +4925,13 @@
         <v>232947</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4793,13 +4939,13 @@
         <v>232946</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4807,13 +4953,13 @@
         <v>232945</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4821,13 +4967,13 @@
         <v>290763</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,13 +4981,13 @@
         <v>232410</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,13 +4995,13 @@
         <v>232944</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4863,13 +5009,13 @@
         <v>232409</v>
       </c>
       <c r="B134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,13 +5023,13 @@
         <v>232951</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,13 +5037,13 @@
         <v>125775</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,13 +5051,13 @@
         <v>112293</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4919,13 +5065,13 @@
         <v>109950</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4933,13 +5079,13 @@
         <v>101732</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4947,13 +5093,13 @@
         <v>101736</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4961,13 +5107,13 @@
         <v>112327</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4975,13 +5121,13 @@
         <v>101734</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,13 +5135,13 @@
         <v>101733</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,13 +5149,13 @@
         <v>108277</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5017,13 +5163,13 @@
         <v>108276</v>
       </c>
       <c r="B145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5031,13 +5177,13 @@
         <v>101731</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,13 +5191,13 @@
         <v>100706</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,13 +5205,13 @@
         <v>100707</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,13 +5219,13 @@
         <v>106853</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5087,13 +5233,13 @@
         <v>100695</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,13 +5247,13 @@
         <v>100704</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,13 +5261,13 @@
         <v>100694</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,13 +5275,13 @@
         <v>100693</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,13 +5289,13 @@
         <v>100705</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,13 +5303,13 @@
         <v>100876</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5171,13 +5317,13 @@
         <v>133469</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,13 +5331,13 @@
         <v>108465</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,13 +5345,13 @@
         <v>100880</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,13 +5359,13 @@
         <v>100884</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D159" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5227,13 +5373,13 @@
         <v>106833</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D160" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5241,13 +5387,13 @@
         <v>108466</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D161" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5255,13 +5401,13 @@
         <v>133470</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D162" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5269,13 +5415,13 @@
         <v>100881</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,13 +5429,13 @@
         <v>106812</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,13 +5443,13 @@
         <v>100883</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5311,13 +5457,13 @@
         <v>106830</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D166" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5325,13 +5471,13 @@
         <v>106961</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C167" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D167" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5339,13 +5485,13 @@
         <v>306946</v>
       </c>
       <c r="B168" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C168" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D168" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5353,13 +5499,13 @@
         <v>246974</v>
       </c>
       <c r="B169" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D169" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5367,13 +5513,13 @@
         <v>246975</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C170" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5381,13 +5527,13 @@
         <v>246976</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C171" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D171" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5395,13 +5541,13 @@
         <v>231849</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C172" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D172" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5409,13 +5555,13 @@
         <v>252582</v>
       </c>
       <c r="B173" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C173" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5423,13 +5569,13 @@
         <v>155246</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C174" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D174" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,13 +5583,13 @@
         <v>302944</v>
       </c>
       <c r="B175" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C175" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D175" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,13 +5597,13 @@
         <v>101874</v>
       </c>
       <c r="B176" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D176" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,13 +5611,13 @@
         <v>100426</v>
       </c>
       <c r="B177" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C177" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D177" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5479,13 +5625,13 @@
         <v>100431</v>
       </c>
       <c r="B178" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C178" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D178" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5493,13 +5639,13 @@
         <v>112174</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C179" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D179" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,13 +5653,13 @@
         <v>213003</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C180" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D180" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,13 +5667,13 @@
         <v>285689</v>
       </c>
       <c r="B181" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C181" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D181" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,13 +5681,13 @@
         <v>285690</v>
       </c>
       <c r="B182" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C182" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,13 +5695,13 @@
         <v>285691</v>
       </c>
       <c r="B183" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C183" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D183" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5563,13 +5709,13 @@
         <v>285692</v>
       </c>
       <c r="B184" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C184" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D184" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5577,13 +5723,13 @@
         <v>247502</v>
       </c>
       <c r="B185" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C185" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D185" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5591,13 +5737,13 @@
         <v>186012</v>
       </c>
       <c r="B186" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C186" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D186" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5605,13 +5751,13 @@
         <v>112179</v>
       </c>
       <c r="B187" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C187" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D187" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,13 +5765,13 @@
         <v>106547</v>
       </c>
       <c r="B188" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C188" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D188" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5633,13 +5779,13 @@
         <v>106548</v>
       </c>
       <c r="B189" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C189" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D189" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5647,13 +5793,13 @@
         <v>106546</v>
       </c>
       <c r="B190" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C190" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D190" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,13 +5807,13 @@
         <v>106545</v>
       </c>
       <c r="B191" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C191" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D191" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,13 +5821,13 @@
         <v>107673</v>
       </c>
       <c r="B192" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C192" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D192" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,13 +5835,13 @@
         <v>123791</v>
       </c>
       <c r="B193" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5703,13 +5849,13 @@
         <v>100423</v>
       </c>
       <c r="B194" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C194" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D194" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,13 +5863,13 @@
         <v>123792</v>
       </c>
       <c r="B195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5731,13 +5877,13 @@
         <v>100419</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C196" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D196" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,13 +5891,13 @@
         <v>123793</v>
       </c>
       <c r="B197" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C197" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D197" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,13 +5905,13 @@
         <v>220037</v>
       </c>
       <c r="B198" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C198" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D198" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,13 +5919,13 @@
         <v>123795</v>
       </c>
       <c r="B199" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C199" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D199" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5787,13 +5933,13 @@
         <v>204461</v>
       </c>
       <c r="B200" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C200" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D200" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5801,13 +5947,13 @@
         <v>123796</v>
       </c>
       <c r="B201" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C201" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D201" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5815,13 +5961,13 @@
         <v>100420</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C202" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D202" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,13 +5975,13 @@
         <v>123797</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C203" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D203" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,13 +5989,13 @@
         <v>100417</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C204" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D204" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5857,13 +6003,13 @@
         <v>207586</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C205" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D205" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5871,13 +6017,13 @@
         <v>207582</v>
       </c>
       <c r="B206" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C206" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D206" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5885,13 +6031,13 @@
         <v>207584</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C207" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D207" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5899,13 +6045,13 @@
         <v>207588</v>
       </c>
       <c r="B208" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C208" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D208" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5913,13 +6059,13 @@
         <v>256724</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C209" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D209" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5927,13 +6073,13 @@
         <v>106661</v>
       </c>
       <c r="B210" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C210" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D210" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5941,13 +6087,13 @@
         <v>100391</v>
       </c>
       <c r="B211" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C211" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D211" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5955,13 +6101,13 @@
         <v>100394</v>
       </c>
       <c r="B212" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C212" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D212" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5969,13 +6115,13 @@
         <v>100392</v>
       </c>
       <c r="B213" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C213" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D213" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5983,13 +6129,13 @@
         <v>100402</v>
       </c>
       <c r="B214" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C214" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D214" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,13 +6143,13 @@
         <v>100403</v>
       </c>
       <c r="B215" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C215" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D215" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6011,13 +6157,13 @@
         <v>100393</v>
       </c>
       <c r="B216" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C216" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D216" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6025,13 +6171,13 @@
         <v>100390</v>
       </c>
       <c r="B217" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C217" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D217" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6039,13 +6185,13 @@
         <v>139059</v>
       </c>
       <c r="B218" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C218" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D218" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6053,13 +6199,13 @@
         <v>195115</v>
       </c>
       <c r="B219" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C219" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D219" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6067,13 +6213,13 @@
         <v>118939</v>
       </c>
       <c r="B220" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C220" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D220" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6081,13 +6227,13 @@
         <v>118940</v>
       </c>
       <c r="B221" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C221" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D221" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6095,13 +6241,13 @@
         <v>156422</v>
       </c>
       <c r="B222" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D222" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E222">
         <v>5.99</v>
@@ -6112,13 +6258,13 @@
         <v>257710</v>
       </c>
       <c r="B223" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C223" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D223" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6126,13 +6272,13 @@
         <v>289451</v>
       </c>
       <c r="B224" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C224" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D224" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6140,13 +6286,13 @@
         <v>261867</v>
       </c>
       <c r="B225" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C225" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D225" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6154,13 +6300,13 @@
         <v>286231</v>
       </c>
       <c r="B226" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C226" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D226" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E226">
         <v>16.989999999999998</v>
@@ -6171,13 +6317,13 @@
         <v>248450</v>
       </c>
       <c r="B227" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C227" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D227" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,13 +6331,13 @@
         <v>215454</v>
       </c>
       <c r="B228" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C228" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D228" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6199,13 +6345,13 @@
         <v>286199</v>
       </c>
       <c r="B229" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C229" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D229" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6213,13 +6359,13 @@
         <v>261083</v>
       </c>
       <c r="B230" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C230" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D230" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6227,13 +6373,13 @@
         <v>100373</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C231" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D231" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6241,13 +6387,13 @@
         <v>109064</v>
       </c>
       <c r="B232" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C232" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D232" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E232">
         <v>7.99</v>
@@ -6258,13 +6404,13 @@
         <v>135954</v>
       </c>
       <c r="B233" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C233" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D233" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E233">
         <v>7.99</v>
@@ -6275,13 +6421,13 @@
         <v>173970</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C234" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D234" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6289,13 +6435,13 @@
         <v>272259</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C235" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D235" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6303,13 +6449,13 @@
         <v>196851</v>
       </c>
       <c r="B236" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C236" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D236" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,13 +6463,13 @@
         <v>224859</v>
       </c>
       <c r="B237" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C237" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D237" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6331,13 +6477,13 @@
         <v>213540</v>
       </c>
       <c r="B238" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C238" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D238" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6345,13 +6491,13 @@
         <v>211157</v>
       </c>
       <c r="B239" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C239" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D239" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6359,13 +6505,13 @@
         <v>168527</v>
       </c>
       <c r="B240" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D240" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6373,13 +6519,13 @@
         <v>262566</v>
       </c>
       <c r="B241" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C241" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D241" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,13 +6533,13 @@
         <v>167527</v>
       </c>
       <c r="B242" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C242" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D242" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,13 +6547,13 @@
         <v>206737</v>
       </c>
       <c r="B243" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C243" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D243" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,13 +6561,13 @@
         <v>303583</v>
       </c>
       <c r="B244" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C244" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D244" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,13 +6575,13 @@
         <v>313924</v>
       </c>
       <c r="B245" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C245" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D245" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,13 +6589,13 @@
         <v>269629</v>
       </c>
       <c r="B246" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C246" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D246" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6457,13 +6603,13 @@
         <v>295312</v>
       </c>
       <c r="B247" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C247" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D247" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6471,13 +6617,13 @@
         <v>171341</v>
       </c>
       <c r="B248" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C248" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D248" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,13 +6631,13 @@
         <v>219054</v>
       </c>
       <c r="B249" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C249" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D249" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,13 +6645,13 @@
         <v>274185</v>
       </c>
       <c r="B250" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C250" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D250" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6513,13 +6659,13 @@
         <v>316174</v>
       </c>
       <c r="B251" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C251" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D251" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6527,13 +6673,13 @@
         <v>303582</v>
       </c>
       <c r="B252" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C252" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D252" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6541,13 +6687,13 @@
         <v>167528</v>
       </c>
       <c r="B253" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C253" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D253" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,13 +6701,13 @@
         <v>280872</v>
       </c>
       <c r="B254" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C254" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D254" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,13 +6715,13 @@
         <v>316170</v>
       </c>
       <c r="B255" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C255" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D255" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,13 +6729,13 @@
         <v>171343</v>
       </c>
       <c r="B256" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C256" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D256" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,13 +6743,13 @@
         <v>224567</v>
       </c>
       <c r="B257" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C257" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D257" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,13 +6757,13 @@
         <v>294213</v>
       </c>
       <c r="B258" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C258" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D258" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,13 +6771,13 @@
         <v>170616</v>
       </c>
       <c r="B259" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C259" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D259" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,13 +6785,13 @@
         <v>163627</v>
       </c>
       <c r="B260" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C260" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D260" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,13 +6799,13 @@
         <v>284786</v>
       </c>
       <c r="B261" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C261" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D261" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6667,13 +6813,13 @@
         <v>255028</v>
       </c>
       <c r="B262" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C262" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D262" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6681,13 +6827,13 @@
         <v>213094</v>
       </c>
       <c r="B263" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C263" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D263" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,13 +6841,13 @@
         <v>165646</v>
       </c>
       <c r="B264" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C264" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D264" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,13 +6855,13 @@
         <v>163614</v>
       </c>
       <c r="B265" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C265" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D265" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,13 +6869,13 @@
         <v>312363</v>
       </c>
       <c r="B266" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C266" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D266" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,13 +6883,13 @@
         <v>107928</v>
       </c>
       <c r="B267" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C267" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D267" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,13 +6897,13 @@
         <v>174473</v>
       </c>
       <c r="B268" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C268" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,13 +6911,13 @@
         <v>182034</v>
       </c>
       <c r="B269" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C269" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D269" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,13 +6925,13 @@
         <v>287599</v>
       </c>
       <c r="B270" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C270" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D270" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,13 +6939,13 @@
         <v>117576</v>
       </c>
       <c r="B271" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C271" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D271" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,13 +6953,13 @@
         <v>230503</v>
       </c>
       <c r="B272" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C272" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D272" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,13 +6967,13 @@
         <v>109683</v>
       </c>
       <c r="B273" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C273" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D273" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,13 +6981,13 @@
         <v>230504</v>
       </c>
       <c r="B274" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C274" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D274" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,13 +6995,13 @@
         <v>314034</v>
       </c>
       <c r="B275" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C275" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D275" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,13 +7009,13 @@
         <v>281777</v>
       </c>
       <c r="B276" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C276" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D276" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,13 +7023,13 @@
         <v>117258</v>
       </c>
       <c r="B277" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C277" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D277" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6891,13 +7037,13 @@
         <v>117425</v>
       </c>
       <c r="B278" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C278" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D278" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,13 +7051,13 @@
         <v>294752</v>
       </c>
       <c r="B279" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C279" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D279" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,13 +7065,13 @@
         <v>314368</v>
       </c>
       <c r="B280" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C280" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D280" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6933,13 +7079,13 @@
         <v>281726</v>
       </c>
       <c r="B281" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C281" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D281" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,13 +7093,13 @@
         <v>109593</v>
       </c>
       <c r="B282" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C282" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D282" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,13 +7107,13 @@
         <v>313968</v>
       </c>
       <c r="B283" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C283" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D283" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6975,13 +7121,13 @@
         <v>297811</v>
       </c>
       <c r="B284" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C284" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D284" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,13 +7135,13 @@
         <v>309354</v>
       </c>
       <c r="B285" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C285" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D285" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,13 +7149,13 @@
         <v>292040</v>
       </c>
       <c r="B286" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C286" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D286" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7017,13 +7163,13 @@
         <v>225436</v>
       </c>
       <c r="B287" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C287" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D287" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,13 +7177,13 @@
         <v>141297</v>
       </c>
       <c r="B288" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C288" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D288" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,13 +7191,13 @@
         <v>141299</v>
       </c>
       <c r="B289" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C289" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D289" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,13 +7205,13 @@
         <v>230985</v>
       </c>
       <c r="B290" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C290" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D290" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -7073,13 +7219,13 @@
         <v>202717</v>
       </c>
       <c r="B291" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C291" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D291" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,13 +7233,13 @@
         <v>312369</v>
       </c>
       <c r="B292" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C292" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D292" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,13 +7247,13 @@
         <v>312371</v>
       </c>
       <c r="B293" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C293" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D293" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,13 +7261,13 @@
         <v>311881</v>
       </c>
       <c r="B294" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C294" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D294" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,13 +7275,13 @@
         <v>312370</v>
       </c>
       <c r="B295" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C295" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D295" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,13 +7289,13 @@
         <v>312366</v>
       </c>
       <c r="B296" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C296" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D296" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,13 +7303,13 @@
         <v>312365</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C297" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D297" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,13 +7317,13 @@
         <v>312367</v>
       </c>
       <c r="B298" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C298" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D298" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,13 +7331,13 @@
         <v>312364</v>
       </c>
       <c r="B299" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C299" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D299" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,13 +7345,13 @@
         <v>298933</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C300" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D300" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,13 +7359,13 @@
         <v>208281</v>
       </c>
       <c r="B301" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C301" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D301" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7227,13 +7373,13 @@
         <v>298928</v>
       </c>
       <c r="B302" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C302" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D302" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,13 +7387,13 @@
         <v>312368</v>
       </c>
       <c r="B303" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C303" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D303" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,13 +7401,13 @@
         <v>208304</v>
       </c>
       <c r="B304" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C304" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D304" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,13 +7415,13 @@
         <v>298930</v>
       </c>
       <c r="B305" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C305" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D305" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7283,13 +7429,13 @@
         <v>298927</v>
       </c>
       <c r="B306" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C306" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D306" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,13 +7443,13 @@
         <v>298929</v>
       </c>
       <c r="B307" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C307" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D307" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,13 +7457,13 @@
         <v>298931</v>
       </c>
       <c r="B308" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C308" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D308" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,13 +7471,13 @@
         <v>208280</v>
       </c>
       <c r="B309" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C309" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D309" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,13 +7485,13 @@
         <v>298932</v>
       </c>
       <c r="B310" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C310" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D310" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,13 +7499,13 @@
         <v>313959</v>
       </c>
       <c r="B311" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C311" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D311" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,13 +7513,13 @@
         <v>304353</v>
       </c>
       <c r="B312" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C312" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D312" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7381,13 +7527,13 @@
         <v>313958</v>
       </c>
       <c r="B313" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C313" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D313" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,13 +7541,13 @@
         <v>276630</v>
       </c>
       <c r="B314" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C314" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D314" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,13 +7555,13 @@
         <v>276631</v>
       </c>
       <c r="B315" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C315" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D315" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,13 +7569,13 @@
         <v>315319</v>
       </c>
       <c r="B316" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C316" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D316" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,13 +7583,13 @@
         <v>316179</v>
       </c>
       <c r="B317" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C317" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D317" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,13 +7597,13 @@
         <v>316180</v>
       </c>
       <c r="B318" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C318" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D318" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,13 +7611,13 @@
         <v>313925</v>
       </c>
       <c r="B319" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C319" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D319" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,13 +7625,13 @@
         <v>321780</v>
       </c>
       <c r="B320" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C320" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D320" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7493,13 +7639,13 @@
         <v>286468</v>
       </c>
       <c r="B321" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C321" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D321" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,13 +7653,13 @@
         <v>300477</v>
       </c>
       <c r="B322" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C322" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D322" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,13 +7667,13 @@
         <v>303581</v>
       </c>
       <c r="B323" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C323" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D323" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7535,13 +7681,13 @@
         <v>303580</v>
       </c>
       <c r="B324" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C324" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D324" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7549,13 +7695,13 @@
         <v>256362</v>
       </c>
       <c r="B325" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C325" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D325" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7563,13 +7709,13 @@
         <v>189049</v>
       </c>
       <c r="B326" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C326" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D326" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,13 +7723,13 @@
         <v>313926</v>
       </c>
       <c r="B327" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C327" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D327" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7591,13 +7737,13 @@
         <v>316166</v>
       </c>
       <c r="B328" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C328" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D328" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7605,13 +7751,13 @@
         <v>300469</v>
       </c>
       <c r="B329" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C329" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D329" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,13 +7765,13 @@
         <v>254215</v>
       </c>
       <c r="B330" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C330" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D330" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7633,13 +7779,13 @@
         <v>196735</v>
       </c>
       <c r="B331" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C331" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D331" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,13 +7793,13 @@
         <v>277148</v>
       </c>
       <c r="B332" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C332" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D332" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7661,13 +7807,13 @@
         <v>308560</v>
       </c>
       <c r="B333" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C333" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D333" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7675,13 +7821,13 @@
         <v>214327</v>
       </c>
       <c r="B334" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C334" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D334" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,13 +7835,13 @@
         <v>110941</v>
       </c>
       <c r="B335" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C335" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D335" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,13 +7849,13 @@
         <v>110487</v>
       </c>
       <c r="B336" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C336" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D336" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7717,13 +7863,13 @@
         <v>122533</v>
       </c>
       <c r="B337" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C337" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D337" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,13 +7877,13 @@
         <v>200175</v>
       </c>
       <c r="B338" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C338" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D338" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7745,13 +7891,13 @@
         <v>162945</v>
       </c>
       <c r="B339" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C339" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D339" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,13 +7905,13 @@
         <v>107698</v>
       </c>
       <c r="B340" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C340" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D340" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,13 +7919,13 @@
         <v>324239</v>
       </c>
       <c r="B341" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C341" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D341" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7787,13 +7933,13 @@
         <v>107699</v>
       </c>
       <c r="B342" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C342" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D342" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,13 +7947,13 @@
         <v>157417</v>
       </c>
       <c r="B343" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C343" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D343" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7815,13 +7961,13 @@
         <v>108866</v>
       </c>
       <c r="B344" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C344" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D344" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7829,13 +7975,13 @@
         <v>108867</v>
       </c>
       <c r="B345" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C345" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D345" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7843,13 +7989,13 @@
         <v>301365</v>
       </c>
       <c r="B346" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C346" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D346" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7857,13 +8003,13 @@
         <v>190286</v>
       </c>
       <c r="B347" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C347" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D347" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7871,13 +8017,13 @@
         <v>144261</v>
       </c>
       <c r="B348" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C348" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D348" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7885,13 +8031,13 @@
         <v>108873</v>
       </c>
       <c r="B349" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C349" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D349" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7899,13 +8045,13 @@
         <v>121641</v>
       </c>
       <c r="B350" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C350" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D350" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7913,13 +8059,13 @@
         <v>167507</v>
       </c>
       <c r="B351" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C351" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D351" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7927,13 +8073,13 @@
         <v>228933</v>
       </c>
       <c r="B352" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C352" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D352" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,13 +8087,13 @@
         <v>306134</v>
       </c>
       <c r="B353" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C353" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D353" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,13 +8101,13 @@
         <v>176209</v>
       </c>
       <c r="B354" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C354" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D354" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7969,13 +8115,13 @@
         <v>272258</v>
       </c>
       <c r="B355" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C355" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D355" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7983,13 +8129,13 @@
         <v>200141</v>
       </c>
       <c r="B356" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C356" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D356" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7997,13 +8143,13 @@
         <v>224856</v>
       </c>
       <c r="B357" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C357" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D357" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,13 +8157,13 @@
         <v>213539</v>
       </c>
       <c r="B358" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C358" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D358" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,13 +8171,13 @@
         <v>117221</v>
       </c>
       <c r="B359" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C359" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D359" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,13 +8185,13 @@
         <v>305261</v>
       </c>
       <c r="B360" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C360" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D360" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -8053,13 +8199,13 @@
         <v>253878</v>
       </c>
       <c r="B361" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C361" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D361" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -8067,13 +8213,13 @@
         <v>253880</v>
       </c>
       <c r="B362" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C362" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D362" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -8081,13 +8227,13 @@
         <v>320467</v>
       </c>
       <c r="B363" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C363" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D363" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,13 +8241,13 @@
         <v>253877</v>
       </c>
       <c r="B364" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C364" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D364" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,13 +8255,13 @@
         <v>244424</v>
       </c>
       <c r="B365" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C365" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D365" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,13 +8269,13 @@
         <v>244426</v>
       </c>
       <c r="B366" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C366" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D366" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,13 +8283,13 @@
         <v>302661</v>
       </c>
       <c r="B367" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C367" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D367" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -8151,13 +8297,13 @@
         <v>302660</v>
       </c>
       <c r="B368" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C368" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D368" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8165,13 +8311,13 @@
         <v>273004</v>
       </c>
       <c r="B369" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C369" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D369" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E369">
         <v>8.49</v>
@@ -8182,13 +8328,13 @@
         <v>273000</v>
       </c>
       <c r="B370" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C370" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D370" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E370">
         <v>8.49</v>
@@ -8199,13 +8345,13 @@
         <v>273005</v>
       </c>
       <c r="B371" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C371" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D371" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E371">
         <v>8.49</v>
@@ -8216,13 +8362,13 @@
         <v>102287</v>
       </c>
       <c r="B372" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C372" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D372" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8230,13 +8376,13 @@
         <v>286589</v>
       </c>
       <c r="B373" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C373" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D373" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E373">
         <v>9.99</v>
@@ -8247,13 +8393,13 @@
         <v>287184</v>
       </c>
       <c r="B374" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C374" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D374" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E374">
         <v>9.99</v>
@@ -8264,13 +8410,13 @@
         <v>287177</v>
       </c>
       <c r="B375" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C375" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D375" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E375">
         <v>9.99</v>
@@ -8281,13 +8427,13 @@
         <v>104406</v>
       </c>
       <c r="B376" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C376" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D376" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8295,13 +8441,13 @@
         <v>104404</v>
       </c>
       <c r="B377" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C377" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D377" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8309,13 +8455,13 @@
         <v>104410</v>
       </c>
       <c r="B378" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C378" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D378" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8323,13 +8469,13 @@
         <v>104405</v>
       </c>
       <c r="B379" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C379" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D379" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8337,13 +8483,13 @@
         <v>239446</v>
       </c>
       <c r="B380" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C380" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D380" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -8351,13 +8497,13 @@
         <v>287369</v>
       </c>
       <c r="B381" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C381" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D381" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,13 +8511,13 @@
         <v>170451</v>
       </c>
       <c r="B382" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C382" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D382" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -8379,13 +8525,13 @@
         <v>247800</v>
       </c>
       <c r="B383" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C383" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D383" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -8393,13 +8539,13 @@
         <v>242930</v>
       </c>
       <c r="B384" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C384" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D384" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -8407,13 +8553,13 @@
         <v>107376</v>
       </c>
       <c r="B385" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C385" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D385" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -8421,13 +8567,13 @@
         <v>293188</v>
       </c>
       <c r="B386" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C386" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D386" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -8435,13 +8581,13 @@
         <v>102085</v>
       </c>
       <c r="B387" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C387" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D387" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -8449,13 +8595,13 @@
         <v>215568</v>
       </c>
       <c r="B388" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C388" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D388" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -8463,13 +8609,13 @@
         <v>301843</v>
       </c>
       <c r="B389" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C389" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D389" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -8477,13 +8623,13 @@
         <v>219274</v>
       </c>
       <c r="B390" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C390" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D390" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -8491,13 +8637,13 @@
         <v>206930</v>
       </c>
       <c r="B391" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C391" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D391" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -8505,13 +8651,13 @@
         <v>110373</v>
       </c>
       <c r="B392" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C392" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D392" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -8519,13 +8665,13 @@
         <v>102077</v>
       </c>
       <c r="B393" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C393" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D393" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -8533,13 +8679,13 @@
         <v>295198</v>
       </c>
       <c r="B394" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C394" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D394" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -8547,13 +8693,13 @@
         <v>155994</v>
       </c>
       <c r="B395" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C395" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D395" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -8561,13 +8707,13 @@
         <v>139964</v>
       </c>
       <c r="B396" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C396" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D396" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -8575,13 +8721,13 @@
         <v>105842</v>
       </c>
       <c r="B397" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C397" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D397" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,13 +8735,13 @@
         <v>119923</v>
       </c>
       <c r="B398" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C398" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D398" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8603,13 +8749,13 @@
         <v>105838</v>
       </c>
       <c r="B399" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C399" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D399" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8617,13 +8763,13 @@
         <v>105840</v>
       </c>
       <c r="B400" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C400" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D400" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -8631,13 +8777,13 @@
         <v>306504</v>
       </c>
       <c r="B401" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C401" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D401" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -8645,13 +8791,13 @@
         <v>109597</v>
       </c>
       <c r="B402" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C402" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D402" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -8659,13 +8805,13 @@
         <v>108786</v>
       </c>
       <c r="B403" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C403" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D403" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -8673,13 +8819,13 @@
         <v>225767</v>
       </c>
       <c r="B404" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C404" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D404" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -8687,13 +8833,13 @@
         <v>105853</v>
       </c>
       <c r="B405" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C405" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D405" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -8701,13 +8847,13 @@
         <v>108788</v>
       </c>
       <c r="B406" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C406" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D406" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -8715,13 +8861,13 @@
         <v>185934</v>
       </c>
       <c r="B407" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C407" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D407" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -8729,13 +8875,13 @@
         <v>108774</v>
       </c>
       <c r="B408" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C408" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D408" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -8743,13 +8889,13 @@
         <v>108773</v>
       </c>
       <c r="B409" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C409" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D409" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -8757,13 +8903,13 @@
         <v>105470</v>
       </c>
       <c r="B410" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C410" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D410" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -8771,13 +8917,13 @@
         <v>152232</v>
       </c>
       <c r="B411" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C411" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D411" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -8785,13 +8931,13 @@
         <v>105458</v>
       </c>
       <c r="B412" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C412" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D412" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -8799,13 +8945,13 @@
         <v>105451</v>
       </c>
       <c r="B413" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C413" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D413" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E413">
         <v>36.99</v>
@@ -8816,13 +8962,13 @@
         <v>105471</v>
       </c>
       <c r="B414" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C414" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D414" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -8830,13 +8976,13 @@
         <v>105435</v>
       </c>
       <c r="B415" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C415" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D415" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E415">
         <v>36.99</v>
@@ -8847,13 +8993,13 @@
         <v>105474</v>
       </c>
       <c r="B416" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C416" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D416" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8861,13 +9007,13 @@
         <v>107260</v>
       </c>
       <c r="B417" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C417" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D417" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8875,13 +9021,13 @@
         <v>231292</v>
       </c>
       <c r="B418" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C418" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D418" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8889,13 +9035,13 @@
         <v>173342</v>
       </c>
       <c r="B419" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C419" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D419" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8903,13 +9049,13 @@
         <v>105475</v>
       </c>
       <c r="B420" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C420" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D420" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8917,13 +9063,13 @@
         <v>105469</v>
       </c>
       <c r="B421" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C421" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D421" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8931,13 +9077,13 @@
         <v>261519</v>
       </c>
       <c r="B422" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C422" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D422" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,13 +9091,13 @@
         <v>106249</v>
       </c>
       <c r="B423" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C423" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D423" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8959,13 +9105,13 @@
         <v>286549</v>
       </c>
       <c r="B424" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C424" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D424" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8973,13 +9119,13 @@
         <v>305039</v>
       </c>
       <c r="B425" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C425" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D425" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8987,13 +9133,13 @@
         <v>189031</v>
       </c>
       <c r="B426" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C426" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D426" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -9001,13 +9147,13 @@
         <v>117117</v>
       </c>
       <c r="B427" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C427" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D427" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -9015,13 +9161,13 @@
         <v>289127</v>
       </c>
       <c r="B428" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C428" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D428" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -9029,13 +9175,13 @@
         <v>129515</v>
       </c>
       <c r="B429" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C429" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D429" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -9043,13 +9189,13 @@
         <v>228422</v>
       </c>
       <c r="B430" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C430" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D430" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -9057,13 +9203,13 @@
         <v>105770</v>
       </c>
       <c r="B431" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C431" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D431" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -9071,13 +9217,13 @@
         <v>105765</v>
       </c>
       <c r="B432" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C432" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D432" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9085,13 +9231,13 @@
         <v>173405</v>
       </c>
       <c r="B433" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C433" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D433" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -9099,13 +9245,13 @@
         <v>111741</v>
       </c>
       <c r="B434" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C434" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D434" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -9113,13 +9259,13 @@
         <v>286228</v>
       </c>
       <c r="B435" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C435" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D435" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9127,13 +9273,13 @@
         <v>138538</v>
       </c>
       <c r="B436" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C436" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D436" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9141,13 +9287,13 @@
         <v>127328</v>
       </c>
       <c r="B437" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C437" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D437" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9155,13 +9301,13 @@
         <v>298215</v>
       </c>
       <c r="B438" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C438" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D438" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9169,13 +9315,13 @@
         <v>106053</v>
       </c>
       <c r="B439" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C439" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D439" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9183,13 +9329,13 @@
         <v>105062</v>
       </c>
       <c r="B440" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C440" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D440" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -9197,13 +9343,13 @@
         <v>105433</v>
       </c>
       <c r="B441" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C441" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D441" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E441">
         <v>19.989999999999998</v>
@@ -9214,13 +9360,13 @@
         <v>258810</v>
       </c>
       <c r="B442" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C442" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D442" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -9228,13 +9374,13 @@
         <v>106034</v>
       </c>
       <c r="B443" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C443" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D443" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -9242,13 +9388,13 @@
         <v>110086</v>
       </c>
       <c r="B444" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C444" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D444" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -9256,13 +9402,13 @@
         <v>114556</v>
       </c>
       <c r="B445" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C445" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D445" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9270,13 +9416,13 @@
         <v>113301</v>
       </c>
       <c r="B446" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C446" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D446" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9284,13 +9430,13 @@
         <v>171272</v>
       </c>
       <c r="B447" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C447" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D447" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9298,13 +9444,13 @@
         <v>302448</v>
       </c>
       <c r="B448" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C448" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D448" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9312,13 +9458,13 @@
         <v>121635</v>
       </c>
       <c r="B449" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C449" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D449" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9326,13 +9472,13 @@
         <v>229361</v>
       </c>
       <c r="B450" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C450" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D450" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9340,13 +9486,13 @@
         <v>311249</v>
       </c>
       <c r="B451" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C451" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D451" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9354,13 +9500,13 @@
         <v>105001</v>
       </c>
       <c r="B452" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C452" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D452" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E452">
         <v>4.99</v>
@@ -9371,13 +9517,13 @@
         <v>104919</v>
       </c>
       <c r="B453" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C453" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D453" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E453">
         <v>4.59</v>
@@ -9388,13 +9534,13 @@
         <v>104862</v>
       </c>
       <c r="B454" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C454" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D454" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E454">
         <v>4.99</v>
@@ -9405,13 +9551,13 @@
         <v>104931</v>
       </c>
       <c r="B455" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C455" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D455" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E455">
         <v>9.99</v>
@@ -9422,13 +9568,13 @@
         <v>104944</v>
       </c>
       <c r="B456" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C456" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D456" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E456">
         <v>11.99</v>
@@ -9439,13 +9585,13 @@
         <v>104992</v>
       </c>
       <c r="B457" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C457" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D457" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E457">
         <v>3.99</v>
@@ -9456,13 +9602,13 @@
         <v>104961</v>
       </c>
       <c r="B458" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C458" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D458" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E458">
         <v>7.99</v>
@@ -9473,13 +9619,13 @@
         <v>293779</v>
       </c>
       <c r="B459" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C459" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D459" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E459">
         <v>65.989999999999995</v>
@@ -9490,16 +9636,492 @@
         <v>231570</v>
       </c>
       <c r="B460" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C460" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D460" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E460">
         <v>65.989999999999995</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>157014</v>
+      </c>
+      <c r="B461" t="s">
+        <v>756</v>
+      </c>
+      <c r="C461" t="s">
+        <v>856</v>
+      </c>
+      <c r="D461" t="s">
+        <v>857</v>
+      </c>
+      <c r="E461">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>105459</v>
+      </c>
+      <c r="B462" t="s">
+        <v>756</v>
+      </c>
+      <c r="C462" t="s">
+        <v>858</v>
+      </c>
+      <c r="D462" t="s">
+        <v>859</v>
+      </c>
+      <c r="E462">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>105463</v>
+      </c>
+      <c r="B463" t="s">
+        <v>756</v>
+      </c>
+      <c r="C463" t="s">
+        <v>860</v>
+      </c>
+      <c r="D463" t="s">
+        <v>861</v>
+      </c>
+      <c r="E463">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>105449</v>
+      </c>
+      <c r="B464" t="s">
+        <v>756</v>
+      </c>
+      <c r="C464" t="s">
+        <v>862</v>
+      </c>
+      <c r="D464" t="s">
+        <v>863</v>
+      </c>
+      <c r="E464">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>106032</v>
+      </c>
+      <c r="B465" t="s">
+        <v>814</v>
+      </c>
+      <c r="C465" t="s">
+        <v>864</v>
+      </c>
+      <c r="D465" t="s">
+        <v>865</v>
+      </c>
+      <c r="E465">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>100087</v>
+      </c>
+      <c r="B466" t="s">
+        <v>24</v>
+      </c>
+      <c r="C466" t="s">
+        <v>866</v>
+      </c>
+      <c r="D466" t="s">
+        <v>867</v>
+      </c>
+      <c r="E466">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>107878</v>
+      </c>
+      <c r="B467" t="s">
+        <v>343</v>
+      </c>
+      <c r="C467" t="s">
+        <v>868</v>
+      </c>
+      <c r="D467" t="s">
+        <v>868</v>
+      </c>
+      <c r="E467">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>102242</v>
+      </c>
+      <c r="B468" t="s">
+        <v>343</v>
+      </c>
+      <c r="C468" t="s">
+        <v>869</v>
+      </c>
+      <c r="D468" t="s">
+        <v>870</v>
+      </c>
+      <c r="E468">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>181416</v>
+      </c>
+      <c r="B469" t="s">
+        <v>343</v>
+      </c>
+      <c r="C469" t="s">
+        <v>871</v>
+      </c>
+      <c r="D469" t="s">
+        <v>872</v>
+      </c>
+      <c r="E469">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>179914</v>
+      </c>
+      <c r="B470" t="s">
+        <v>343</v>
+      </c>
+      <c r="C470" t="s">
+        <v>873</v>
+      </c>
+      <c r="D470" t="s">
+        <v>874</v>
+      </c>
+      <c r="E470">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>225670</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>875</v>
+      </c>
+      <c r="D471" t="s">
+        <v>876</v>
+      </c>
+      <c r="E471">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>186826</v>
+      </c>
+      <c r="B472" t="s">
+        <v>38</v>
+      </c>
+      <c r="C472" t="s">
+        <v>877</v>
+      </c>
+      <c r="D472" t="s">
+        <v>878</v>
+      </c>
+      <c r="E472">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>315855</v>
+      </c>
+      <c r="B473" t="s">
+        <v>38</v>
+      </c>
+      <c r="C473" t="s">
+        <v>879</v>
+      </c>
+      <c r="D473" t="s">
+        <v>880</v>
+      </c>
+      <c r="E473">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>213696</v>
+      </c>
+      <c r="B474" t="s">
+        <v>38</v>
+      </c>
+      <c r="C474" t="s">
+        <v>881</v>
+      </c>
+      <c r="D474" t="s">
+        <v>882</v>
+      </c>
+      <c r="E474">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>255841</v>
+      </c>
+      <c r="B475" t="s">
+        <v>38</v>
+      </c>
+      <c r="C475" t="s">
+        <v>883</v>
+      </c>
+      <c r="D475" t="s">
+        <v>884</v>
+      </c>
+      <c r="E475">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>245822</v>
+      </c>
+      <c r="B476" t="s">
+        <v>38</v>
+      </c>
+      <c r="C476" t="s">
+        <v>885</v>
+      </c>
+      <c r="D476" t="s">
+        <v>886</v>
+      </c>
+      <c r="E476">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>170363</v>
+      </c>
+      <c r="B477" t="s">
+        <v>38</v>
+      </c>
+      <c r="C477" t="s">
+        <v>887</v>
+      </c>
+      <c r="D477" t="s">
+        <v>888</v>
+      </c>
+      <c r="E477">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>290255</v>
+      </c>
+      <c r="B478" t="s">
+        <v>38</v>
+      </c>
+      <c r="C478" t="s">
+        <v>889</v>
+      </c>
+      <c r="D478" t="s">
+        <v>890</v>
+      </c>
+      <c r="E478">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>261360</v>
+      </c>
+      <c r="B479" t="s">
+        <v>343</v>
+      </c>
+      <c r="C479" t="s">
+        <v>891</v>
+      </c>
+      <c r="D479" t="s">
+        <v>892</v>
+      </c>
+      <c r="E479">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>228234</v>
+      </c>
+      <c r="B480" t="s">
+        <v>343</v>
+      </c>
+      <c r="C480" t="s">
+        <v>893</v>
+      </c>
+      <c r="D480" t="s">
+        <v>894</v>
+      </c>
+      <c r="E480">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>221089</v>
+      </c>
+      <c r="B481" t="s">
+        <v>38</v>
+      </c>
+      <c r="C481" t="s">
+        <v>895</v>
+      </c>
+      <c r="D481" t="s">
+        <v>896</v>
+      </c>
+      <c r="E481">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>104937</v>
+      </c>
+      <c r="B482" t="s">
+        <v>844</v>
+      </c>
+      <c r="C482" t="s">
+        <v>897</v>
+      </c>
+      <c r="D482" t="s">
+        <v>897</v>
+      </c>
+      <c r="E482">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>105023</v>
+      </c>
+      <c r="B483" t="s">
+        <v>844</v>
+      </c>
+      <c r="C483" t="s">
+        <v>898</v>
+      </c>
+      <c r="D483" t="s">
+        <v>898</v>
+      </c>
+      <c r="E483">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>105010</v>
+      </c>
+      <c r="B484" t="s">
+        <v>844</v>
+      </c>
+      <c r="C484" t="s">
+        <v>899</v>
+      </c>
+      <c r="D484" t="s">
+        <v>899</v>
+      </c>
+      <c r="E484">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>104928</v>
+      </c>
+      <c r="B485" t="s">
+        <v>844</v>
+      </c>
+      <c r="C485" t="s">
+        <v>900</v>
+      </c>
+      <c r="D485" t="s">
+        <v>900</v>
+      </c>
+      <c r="E485">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>104947</v>
+      </c>
+      <c r="B486" t="s">
+        <v>844</v>
+      </c>
+      <c r="C486" t="s">
+        <v>901</v>
+      </c>
+      <c r="D486" t="s">
+        <v>901</v>
+      </c>
+      <c r="E486">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>104996</v>
+      </c>
+      <c r="B487" t="s">
+        <v>844</v>
+      </c>
+      <c r="C487" t="s">
+        <v>902</v>
+      </c>
+      <c r="D487" t="s">
+        <v>902</v>
+      </c>
+      <c r="E487">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>239921</v>
+      </c>
+      <c r="B488" t="s">
+        <v>844</v>
+      </c>
+      <c r="C488" t="s">
+        <v>903</v>
+      </c>
+      <c r="D488" t="s">
+        <v>904</v>
+      </c>
+      <c r="E488">
+        <v>23.7</v>
       </c>
     </row>
   </sheetData>

--- a/dados_produtos_corrigidos.xlsx
+++ b/dados_produtos_corrigidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workflow\automacao_giro_ofertas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A87485-E6AE-46E4-9385-32E95561435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9735E-8677-4560-B321-1F9C39B2A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1335" windowWidth="19515" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="905">
   <si>
     <t>ID Produto</t>
   </si>
@@ -2506,9 +2506,6 @@
     <t>#08 BAZAR</t>
   </si>
   <si>
-    <t>COPO DESC TERMOPOT CRISTAL 180ML</t>
-  </si>
-  <si>
     <t xml:space="preserve">COPO DESCARTAVEL TERMOPOT 180ML CRISTAL </t>
   </si>
   <si>
@@ -2735,6 +2732,9 @@
   </si>
   <si>
     <t>OVOS DE GRANJA BDJ 30UN BRANCOS</t>
+  </si>
+  <si>
+    <t>TOMATE SALADETE KG</t>
   </si>
 </sst>
 </file>
@@ -3097,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E488"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489:XFD489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,10 +9391,10 @@
         <v>827</v>
       </c>
       <c r="C444" t="s">
+        <v>825</v>
+      </c>
+      <c r="D444" t="s">
         <v>828</v>
-      </c>
-      <c r="D444" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,10 +9405,10 @@
         <v>827</v>
       </c>
       <c r="C445" t="s">
+        <v>829</v>
+      </c>
+      <c r="D445" t="s">
         <v>830</v>
-      </c>
-      <c r="D445" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9419,10 +9419,10 @@
         <v>827</v>
       </c>
       <c r="C446" t="s">
+        <v>831</v>
+      </c>
+      <c r="D446" t="s">
         <v>832</v>
-      </c>
-      <c r="D446" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9433,10 +9433,10 @@
         <v>827</v>
       </c>
       <c r="C447" t="s">
+        <v>833</v>
+      </c>
+      <c r="D447" t="s">
         <v>834</v>
-      </c>
-      <c r="D447" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -9447,10 +9447,10 @@
         <v>827</v>
       </c>
       <c r="C448" t="s">
+        <v>835</v>
+      </c>
+      <c r="D448" t="s">
         <v>836</v>
-      </c>
-      <c r="D448" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -9461,10 +9461,10 @@
         <v>827</v>
       </c>
       <c r="C449" t="s">
+        <v>837</v>
+      </c>
+      <c r="D449" t="s">
         <v>838</v>
-      </c>
-      <c r="D449" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -9475,10 +9475,10 @@
         <v>827</v>
       </c>
       <c r="C450" t="s">
+        <v>839</v>
+      </c>
+      <c r="D450" t="s">
         <v>840</v>
-      </c>
-      <c r="D450" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -9489,10 +9489,10 @@
         <v>827</v>
       </c>
       <c r="C451" t="s">
+        <v>841</v>
+      </c>
+      <c r="D451" t="s">
         <v>842</v>
-      </c>
-      <c r="D451" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -9500,13 +9500,13 @@
         <v>105001</v>
       </c>
       <c r="B452" t="s">
+        <v>843</v>
+      </c>
+      <c r="C452" t="s">
         <v>844</v>
       </c>
-      <c r="C452" t="s">
-        <v>845</v>
-      </c>
       <c r="D452" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E452">
         <v>4.99</v>
@@ -9517,13 +9517,13 @@
         <v>104919</v>
       </c>
       <c r="B453" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C453" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D453" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E453">
         <v>4.59</v>
@@ -9534,13 +9534,13 @@
         <v>104862</v>
       </c>
       <c r="B454" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C454" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D454" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E454">
         <v>4.99</v>
@@ -9551,13 +9551,13 @@
         <v>104931</v>
       </c>
       <c r="B455" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C455" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D455" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E455">
         <v>9.99</v>
@@ -9568,13 +9568,13 @@
         <v>104944</v>
       </c>
       <c r="B456" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C456" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D456" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E456">
         <v>11.99</v>
@@ -9585,13 +9585,13 @@
         <v>104992</v>
       </c>
       <c r="B457" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C457" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D457" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E457">
         <v>3.99</v>
@@ -9602,13 +9602,13 @@
         <v>104961</v>
       </c>
       <c r="B458" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C458" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D458" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E458">
         <v>7.99</v>
@@ -9622,10 +9622,10 @@
         <v>411</v>
       </c>
       <c r="C459" t="s">
+        <v>851</v>
+      </c>
+      <c r="D459" t="s">
         <v>852</v>
-      </c>
-      <c r="D459" t="s">
-        <v>853</v>
       </c>
       <c r="E459">
         <v>65.989999999999995</v>
@@ -9639,10 +9639,10 @@
         <v>411</v>
       </c>
       <c r="C460" t="s">
+        <v>853</v>
+      </c>
+      <c r="D460" t="s">
         <v>854</v>
-      </c>
-      <c r="D460" t="s">
-        <v>855</v>
       </c>
       <c r="E460">
         <v>65.989999999999995</v>
@@ -9656,10 +9656,10 @@
         <v>756</v>
       </c>
       <c r="C461" t="s">
+        <v>855</v>
+      </c>
+      <c r="D461" t="s">
         <v>856</v>
-      </c>
-      <c r="D461" t="s">
-        <v>857</v>
       </c>
       <c r="E461">
         <v>13.99</v>
@@ -9673,10 +9673,10 @@
         <v>756</v>
       </c>
       <c r="C462" t="s">
+        <v>857</v>
+      </c>
+      <c r="D462" t="s">
         <v>858</v>
-      </c>
-      <c r="D462" t="s">
-        <v>859</v>
       </c>
       <c r="E462">
         <v>20.99</v>
@@ -9690,10 +9690,10 @@
         <v>756</v>
       </c>
       <c r="C463" t="s">
+        <v>859</v>
+      </c>
+      <c r="D463" t="s">
         <v>860</v>
-      </c>
-      <c r="D463" t="s">
-        <v>861</v>
       </c>
       <c r="E463">
         <v>11.99</v>
@@ -9707,10 +9707,10 @@
         <v>756</v>
       </c>
       <c r="C464" t="s">
+        <v>861</v>
+      </c>
+      <c r="D464" t="s">
         <v>862</v>
-      </c>
-      <c r="D464" t="s">
-        <v>863</v>
       </c>
       <c r="E464">
         <v>31.99</v>
@@ -9724,10 +9724,10 @@
         <v>814</v>
       </c>
       <c r="C465" t="s">
+        <v>863</v>
+      </c>
+      <c r="D465" t="s">
         <v>864</v>
-      </c>
-      <c r="D465" t="s">
-        <v>865</v>
       </c>
       <c r="E465">
         <v>18.989999999999998</v>
@@ -9741,10 +9741,10 @@
         <v>24</v>
       </c>
       <c r="C466" t="s">
+        <v>865</v>
+      </c>
+      <c r="D466" t="s">
         <v>866</v>
-      </c>
-      <c r="D466" t="s">
-        <v>867</v>
       </c>
       <c r="E466">
         <v>8.19</v>
@@ -9758,10 +9758,10 @@
         <v>343</v>
       </c>
       <c r="C467" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D467" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E467">
         <v>4.6900000000000004</v>
@@ -9772,13 +9772,13 @@
         <v>102242</v>
       </c>
       <c r="B468" t="s">
-        <v>343</v>
+        <v>708</v>
       </c>
       <c r="C468" t="s">
+        <v>868</v>
+      </c>
+      <c r="D468" t="s">
         <v>869</v>
-      </c>
-      <c r="D468" t="s">
-        <v>870</v>
       </c>
       <c r="E468">
         <v>14.99</v>
@@ -9792,10 +9792,10 @@
         <v>343</v>
       </c>
       <c r="C469" t="s">
+        <v>870</v>
+      </c>
+      <c r="D469" t="s">
         <v>871</v>
-      </c>
-      <c r="D469" t="s">
-        <v>872</v>
       </c>
       <c r="E469">
         <v>10.99</v>
@@ -9809,10 +9809,10 @@
         <v>343</v>
       </c>
       <c r="C470" t="s">
+        <v>872</v>
+      </c>
+      <c r="D470" t="s">
         <v>873</v>
-      </c>
-      <c r="D470" t="s">
-        <v>874</v>
       </c>
       <c r="E470">
         <v>10.99</v>
@@ -9826,10 +9826,10 @@
         <v>5</v>
       </c>
       <c r="C471" t="s">
+        <v>874</v>
+      </c>
+      <c r="D471" t="s">
         <v>875</v>
-      </c>
-      <c r="D471" t="s">
-        <v>876</v>
       </c>
       <c r="E471">
         <v>26.99</v>
@@ -9843,10 +9843,10 @@
         <v>38</v>
       </c>
       <c r="C472" t="s">
+        <v>876</v>
+      </c>
+      <c r="D472" t="s">
         <v>877</v>
-      </c>
-      <c r="D472" t="s">
-        <v>878</v>
       </c>
       <c r="E472">
         <v>4.1900000000000004</v>
@@ -9860,10 +9860,10 @@
         <v>38</v>
       </c>
       <c r="C473" t="s">
+        <v>878</v>
+      </c>
+      <c r="D473" t="s">
         <v>879</v>
-      </c>
-      <c r="D473" t="s">
-        <v>880</v>
       </c>
       <c r="E473">
         <v>5.99</v>
@@ -9877,10 +9877,10 @@
         <v>38</v>
       </c>
       <c r="C474" t="s">
+        <v>880</v>
+      </c>
+      <c r="D474" t="s">
         <v>881</v>
-      </c>
-      <c r="D474" t="s">
-        <v>882</v>
       </c>
       <c r="E474">
         <v>4.99</v>
@@ -9894,10 +9894,10 @@
         <v>38</v>
       </c>
       <c r="C475" t="s">
+        <v>882</v>
+      </c>
+      <c r="D475" t="s">
         <v>883</v>
-      </c>
-      <c r="D475" t="s">
-        <v>884</v>
       </c>
       <c r="E475">
         <v>2.69</v>
@@ -9911,10 +9911,10 @@
         <v>38</v>
       </c>
       <c r="C476" t="s">
+        <v>884</v>
+      </c>
+      <c r="D476" t="s">
         <v>885</v>
-      </c>
-      <c r="D476" t="s">
-        <v>886</v>
       </c>
       <c r="E476">
         <v>7.99</v>
@@ -9928,10 +9928,10 @@
         <v>38</v>
       </c>
       <c r="C477" t="s">
+        <v>886</v>
+      </c>
+      <c r="D477" t="s">
         <v>887</v>
-      </c>
-      <c r="D477" t="s">
-        <v>888</v>
       </c>
       <c r="E477">
         <v>6.79</v>
@@ -9945,10 +9945,10 @@
         <v>38</v>
       </c>
       <c r="C478" t="s">
+        <v>888</v>
+      </c>
+      <c r="D478" t="s">
         <v>889</v>
-      </c>
-      <c r="D478" t="s">
-        <v>890</v>
       </c>
       <c r="E478">
         <v>3.99</v>
@@ -9962,10 +9962,10 @@
         <v>343</v>
       </c>
       <c r="C479" t="s">
+        <v>890</v>
+      </c>
+      <c r="D479" t="s">
         <v>891</v>
-      </c>
-      <c r="D479" t="s">
-        <v>892</v>
       </c>
       <c r="E479">
         <v>9.99</v>
@@ -9979,10 +9979,10 @@
         <v>343</v>
       </c>
       <c r="C480" t="s">
+        <v>892</v>
+      </c>
+      <c r="D480" t="s">
         <v>893</v>
-      </c>
-      <c r="D480" t="s">
-        <v>894</v>
       </c>
       <c r="E480">
         <v>13.99</v>
@@ -9996,10 +9996,10 @@
         <v>38</v>
       </c>
       <c r="C481" t="s">
+        <v>894</v>
+      </c>
+      <c r="D481" t="s">
         <v>895</v>
-      </c>
-      <c r="D481" t="s">
-        <v>896</v>
       </c>
       <c r="E481">
         <v>5.49</v>
@@ -10010,13 +10010,13 @@
         <v>104937</v>
       </c>
       <c r="B482" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C482" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D482" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E482">
         <v>31.99</v>
@@ -10027,13 +10027,13 @@
         <v>105023</v>
       </c>
       <c r="B483" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C483" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D483" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E483">
         <v>5.99</v>
@@ -10044,13 +10044,13 @@
         <v>105010</v>
       </c>
       <c r="B484" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C484" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D484" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E484">
         <v>4.8899999999999997</v>
@@ -10061,13 +10061,13 @@
         <v>104928</v>
       </c>
       <c r="B485" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C485" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D485" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E485">
         <v>6.99</v>
@@ -10078,13 +10078,13 @@
         <v>104947</v>
       </c>
       <c r="B486" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C486" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D486" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E486">
         <v>2.99</v>
@@ -10095,13 +10095,13 @@
         <v>104996</v>
       </c>
       <c r="B487" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C487" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D487" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E487">
         <v>7.19</v>
@@ -10112,16 +10112,33 @@
         <v>239921</v>
       </c>
       <c r="B488" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C488" t="s">
+        <v>902</v>
+      </c>
+      <c r="D488" t="s">
         <v>903</v>
-      </c>
-      <c r="D488" t="s">
-        <v>904</v>
       </c>
       <c r="E488">
         <v>23.7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>104863</v>
+      </c>
+      <c r="B489" t="s">
+        <v>843</v>
+      </c>
+      <c r="C489" t="s">
+        <v>904</v>
+      </c>
+      <c r="D489" t="s">
+        <v>904</v>
+      </c>
+      <c r="E489">
+        <v>9.49</v>
       </c>
     </row>
   </sheetData>

--- a/dados_produtos_corrigidos.xlsx
+++ b/dados_produtos_corrigidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E508"/>
+  <dimension ref="A1:E510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11265,6 +11265,52 @@
         <v>12.99</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>142863</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>DESINFETANTE BAK YPE 2L LAVANDA</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>DESINFETANTE YPE BAK 2L LAVANDA</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>148554</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>#03 LIMPEZA</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>DESINFETANTE BAK YPE EUCALIPTO 2LTS</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>DESINFETANTE YPE BAK 2L EUCALIPTO</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>12.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados_produtos_corrigidos.xlsx
+++ b/dados_produtos_corrigidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E510"/>
+  <dimension ref="A1:E524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11311,6 +11311,328 @@
         <v>12.99</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>311307</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>BOLINHO DE TILAPIA 270GR CONG</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>BOLINHO DE TILAPIA 270G CONGELADO</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>303488</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - FRUTOS DO MAR</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>CAMARAO CINZA COSTAMAR 1KG DESC 51/60</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>CAMARÃO COSTAMAR 1KG CINZA DESCASCADO</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>115.99</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>323487</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - FRUTOS DO MAR</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>CAMARAO VAN S/C COZ  IQF-M 45/80 40X300G</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>CAMARAO COSTA SUL 300G VAN  SEM CABEÇA COZIDO</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>262170</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>COSTELA DE TILAPIA KG</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>COSTELA DE TILAPIA KG</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>141831</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>FILE DE PEIXE PANGA KG</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>FILÉ DE PANGA KG</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>44.99</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>315711</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>FILE DE TILAPIA DO PESCADO 500G</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>FILÉ DE TILAPIA DO PESCADO 500G</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>203263</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>FILE DE TILAPIA KG</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>FILÉ DE TILAPIA KG</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>323489</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - FRUTOS DO MAR</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>MEXILHAO COSTA SUL 300GR MARISCO DESCONC</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>MEXILHÃO COSTA SUL 300G MARISCO DESCONCHADO</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>323501</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>PEIXE SALMAO COSTA SUL 400GR C/PELE FILE</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>FILÉ DE SALMAO COSTA SUL 400G COM PELE</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>254014</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>PESCADA AMARELA FILE 1KG</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>FILÉ DE DOURADA VITÓRIA PESCADOS 1KG</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>284245</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>PESCADO PEIXITOS COSTA SUL 300GR</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>PEIXITOS COSTA SUL 300G</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>284246</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - PEIXES</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>TIRINHAS DE TILAP?A COSTA SUL 300GR EMPA</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>TIRINHAS DE TILÁPIA COSTA SUL 300G EMPANADO</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>105461</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>BOVINO - BISTECA CONTRA FILE KG</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>BISTECA DO CONTRA FILE KG</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>105453</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>#06 AÇOUGUE - BOVINO</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>BOVINO - FILE MIGNON KG</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>FILE MIGNON KG</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>40.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
